--- a/Tugas8_4210161005_4210161008_PemrogramanKomputerAided.xlsx
+++ b/Tugas8_4210161005_4210161008_PemrogramanKomputerAided.xlsx
@@ -78,10 +78,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -94,6 +94,105 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -108,99 +207,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,16 +235,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -263,133 +263,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,43 +425,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -503,30 +497,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -545,8 +515,19 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -569,19 +550,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -600,12 +585,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -623,130 +617,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -898,34 +892,33 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
+      <xdr:colOff>16510</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>547370</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>169545</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>29845</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="IMG_20180502_113820_HDR"/>
+        <xdr:cNvPr id="4" name="Picture 3" descr="IMG_20180502_122638_HDR"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip r:embed="rId2"/>
-        <a:srcRect t="18443" r="12603" b="2439"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6715125" y="3886200"/>
-          <a:ext cx="3547745" cy="4284345"/>
+          <a:off x="6684010" y="3895725"/>
+          <a:ext cx="3671570" cy="4897120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1197,8 +1190,8 @@
   <sheetPr/>
   <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -1335,23 +1328,23 @@
         <v>2</v>
       </c>
       <c r="D8" s="11">
-        <f>C8-(F8*(C8-B8))/(F8-E8)</f>
+        <f t="shared" ref="D8:D13" si="0">C8-(F8*(C8-B8))/(F8-E8)</f>
         <v>1.61362527759489</v>
       </c>
       <c r="E8" s="11">
-        <f>(2.71)^-B8/2+SIN(2*B8)</f>
+        <f t="shared" ref="E8:E13" si="1">(2.71)^-B8/2+SIN(2*B8)</f>
         <v>1.09379927184413</v>
       </c>
       <c r="F8" s="11">
-        <f>(2.71)^-C8/2+SIN(2*C8)</f>
+        <f t="shared" ref="F8:F13" si="2">(2.71)^-C8/2+SIN(2*C8)</f>
         <v>-0.688720633677504</v>
       </c>
       <c r="G8" s="11">
-        <f>(2.71)^-D8/2+SIN(2*D8)</f>
+        <f t="shared" ref="G8:G13" si="3">(2.71)^-D8/2+SIN(2*D8)</f>
         <v>0.0145204758485729</v>
       </c>
       <c r="H8" s="11">
-        <f>E8*G8</f>
+        <f t="shared" ref="H8:H13" si="4">E8*G8</f>
         <v>0.0158824859099993</v>
       </c>
     </row>
@@ -1368,23 +1361,23 @@
         <v>1.61362527759489</v>
       </c>
       <c r="D9" s="11">
-        <f>C9-(F9*(C9-B9))/(F9-E9)</f>
+        <f t="shared" si="0"/>
         <v>1.62160311727062</v>
       </c>
       <c r="E9" s="11">
-        <f>(2.71)^-B9/2+SIN(2*B9)</f>
+        <f t="shared" si="1"/>
         <v>-0.688720633677504</v>
       </c>
       <c r="F9" s="11">
-        <f>(2.71)^-C9/2+SIN(2*C9)</f>
+        <f t="shared" si="2"/>
         <v>0.0145204758485729</v>
       </c>
       <c r="G9" s="11">
-        <f>(2.71)^-D9/2+SIN(2*D9)</f>
+        <f t="shared" si="3"/>
         <v>-0.00215791784515552</v>
       </c>
       <c r="H9" s="11">
-        <f>E9*G9</f>
+        <f t="shared" si="4"/>
         <v>0.00148620254573951</v>
       </c>
     </row>
@@ -1401,23 +1394,23 @@
         <v>1.62160311727062</v>
       </c>
       <c r="D10" s="11">
-        <f>C10-(F10*(C10-B10))/(F10-E10)</f>
+        <f t="shared" si="0"/>
         <v>1.62057091219631</v>
       </c>
       <c r="E10" s="11">
-        <f>(2.71)^-B10/2+SIN(2*B10)</f>
+        <f t="shared" si="1"/>
         <v>0.0145204758485729</v>
       </c>
       <c r="F10" s="11">
-        <f>(2.71)^-C10/2+SIN(2*C10)</f>
+        <f t="shared" si="2"/>
         <v>-0.00215791784515552</v>
       </c>
       <c r="G10" s="11">
-        <f>(2.71)^-D10/2+SIN(2*D10)</f>
+        <f t="shared" si="3"/>
         <v>-1.72355738869978e-6</v>
       </c>
       <c r="H10" s="11">
-        <f>E10*G10</f>
+        <f t="shared" si="4"/>
         <v>-2.50268734362445e-8</v>
       </c>
     </row>
@@ -1434,23 +1427,23 @@
         <v>1.62057091219631</v>
       </c>
       <c r="D11" s="11">
-        <f>C11-(F11*(C11-B11))/(F11-E11)</f>
+        <f t="shared" si="0"/>
         <v>1.62057008710151</v>
       </c>
       <c r="E11" s="11">
-        <f>(2.71)^-B11/2+SIN(2*B11)</f>
+        <f t="shared" si="1"/>
         <v>-0.00215791784515552</v>
       </c>
       <c r="F11" s="11">
-        <f>(2.71)^-C11/2+SIN(2*C11)</f>
+        <f t="shared" si="2"/>
         <v>-1.72355738869978e-6</v>
       </c>
       <c r="G11" s="11">
-        <f>(2.71)^-D11/2+SIN(2*D11)</f>
+        <f t="shared" si="3"/>
         <v>2.12668896382162e-10</v>
       </c>
       <c r="H11" s="11">
-        <f>E11*G11</f>
+        <f t="shared" si="4"/>
         <v>-4.58922006612599e-13</v>
       </c>
     </row>
@@ -1467,23 +1460,23 @@
         <v>1.62057008710151</v>
       </c>
       <c r="D12" s="11">
-        <f>C12-(F12*(C12-B12))/(F12-E12)</f>
+        <f t="shared" si="0"/>
         <v>1.62057008720331</v>
       </c>
       <c r="E12" s="11">
-        <f>(2.71)^-B12/2+SIN(2*B12)</f>
+        <f t="shared" si="1"/>
         <v>-1.72355738869978e-6</v>
       </c>
       <c r="F12" s="11">
-        <f>(2.71)^-C12/2+SIN(2*C12)</f>
+        <f t="shared" si="2"/>
         <v>2.12668896382162e-10</v>
       </c>
       <c r="G12" s="11">
-        <f>(2.71)^-D12/2+SIN(2*D12)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H12" s="11">
-        <f>E12*G12</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1500,23 +1493,23 @@
         <v>1.62057008720331</v>
       </c>
       <c r="D13" s="11">
-        <f>C13-(F13*(C13-B13))/(F13-E13)</f>
+        <f t="shared" si="0"/>
         <v>1.62057008720331</v>
       </c>
       <c r="E13" s="11">
-        <f>(2.71)^-B13/2+SIN(2*B13)</f>
+        <f t="shared" si="1"/>
         <v>2.12668896382162e-10</v>
       </c>
       <c r="F13" s="11">
-        <f>(2.71)^-C13/2+SIN(2*C13)</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G13" s="11">
-        <f>(2.71)^-D13/2+SIN(2*D13)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H13" s="11">
-        <f>E13*G13</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
@@ -1613,23 +1606,23 @@
         <v>2</v>
       </c>
       <c r="D19" s="11">
-        <f>C19-(F19*(C19-B19))/(F19-E19)</f>
+        <f t="shared" ref="D19:D24" si="5">C19-(F19*(C19-B19))/(F19-E19)</f>
         <v>4.04511037794285</v>
       </c>
       <c r="E19" s="11">
-        <f>2.71^-B19*SIN(2*B19)+1</f>
+        <f t="shared" ref="E19:E24" si="6">2.71^-B19*SIN(2*B19)+1</f>
         <v>1.33553410583973</v>
       </c>
       <c r="F19" s="11">
-        <f>2.71^-C19*SIN(2*C19)+1</f>
+        <f t="shared" ref="F19:F24" si="7">2.71^-C19*SIN(2*C19)+1</f>
         <v>0.896950954465771</v>
       </c>
       <c r="G19" s="11">
-        <f>2.71^-D19*SIN(2*D19)+1</f>
+        <f t="shared" ref="G19:G24" si="8">2.71^-D19*SIN(2*D19)+1</f>
         <v>1.01723289514858</v>
       </c>
       <c r="H19" s="11">
-        <f>E19*G19</f>
+        <f t="shared" ref="H19:H24" si="9">E19*G19</f>
         <v>1.35854922505303</v>
       </c>
       <c r="J19" s="2" t="s">
@@ -1656,23 +1649,23 @@
         <v>4.04511037794285</v>
       </c>
       <c r="D20" s="11">
-        <f>C20-(F20*(C20-B20))/(F20-E20)</f>
+        <f t="shared" si="5"/>
         <v>-13.2505329983076</v>
       </c>
       <c r="E20" s="11">
-        <f>2.71^-B20*SIN(2*B20)+1</f>
+        <f t="shared" si="6"/>
         <v>0.896950954465771</v>
       </c>
       <c r="F20" s="11">
-        <f>2.71^-C20*SIN(2*C20)+1</f>
+        <f t="shared" si="7"/>
         <v>1.01723289514858</v>
       </c>
       <c r="G20" s="11">
-        <f>2.71^-D20*SIN(2*D20)+1</f>
+        <f t="shared" si="8"/>
         <v>-534699.374073575</v>
       </c>
       <c r="H20" s="11">
-        <f>E20*G20</f>
+        <f t="shared" si="9"/>
         <v>-479599.113927543</v>
       </c>
       <c r="J20" s="3" t="s">
@@ -1699,23 +1692,23 @@
         <v>-13.2505329983076</v>
       </c>
       <c r="D21" s="11">
-        <f>C21-(F21*(C21-B21))/(F21-E21)</f>
+        <f t="shared" si="5"/>
         <v>4.04507747410049</v>
       </c>
       <c r="E21" s="11">
-        <f>2.71^-B21*SIN(2*B21)+1</f>
+        <f t="shared" si="6"/>
         <v>1.01723289514858</v>
       </c>
       <c r="F21" s="11">
-        <f>2.71^-C21*SIN(2*C21)+1</f>
+        <f t="shared" si="7"/>
         <v>-534699.374073575</v>
       </c>
       <c r="G21" s="11">
-        <f>2.71^-D21*SIN(2*D21)+1</f>
+        <f t="shared" si="8"/>
         <v>1.01723373343409</v>
       </c>
       <c r="H21" s="11">
-        <f>E21*G21</f>
+        <f t="shared" si="9"/>
         <v>1.03476361570396</v>
       </c>
     </row>
@@ -1732,23 +1725,23 @@
         <v>4.04507747410049</v>
       </c>
       <c r="D22" s="11">
-        <f>C22-(F22*(C22-B22))/(F22-E22)</f>
+        <f t="shared" si="5"/>
         <v>4.04504457029361</v>
       </c>
       <c r="E22" s="11">
-        <f>2.71^-B22*SIN(2*B22)+1</f>
+        <f t="shared" si="6"/>
         <v>-534699.374073575</v>
       </c>
       <c r="F22" s="11">
-        <f>2.71^-C22*SIN(2*C22)+1</f>
+        <f t="shared" si="7"/>
         <v>1.01723373343409</v>
       </c>
       <c r="G22" s="11">
-        <f>2.71^-D22*SIN(2*D22)+1</f>
+        <f t="shared" si="8"/>
         <v>1.01723457168051</v>
       </c>
       <c r="H22" s="11">
-        <f>E22*G22</f>
+        <f t="shared" si="9"/>
         <v>-543914.688763569</v>
       </c>
     </row>
@@ -1765,23 +1758,23 @@
         <v>4.04504457029361</v>
       </c>
       <c r="D23" s="11">
-        <f>C23-(F23*(C23-B23))/(F23-E23)</f>
+        <f t="shared" si="5"/>
         <v>43.9746989977722</v>
       </c>
       <c r="E23" s="11">
-        <f>2.71^-B23*SIN(2*B23)+1</f>
+        <f t="shared" si="6"/>
         <v>1.01723373343409</v>
       </c>
       <c r="F23" s="11">
-        <f>2.71^-C23*SIN(2*C23)+1</f>
+        <f t="shared" si="7"/>
         <v>1.01723457168051</v>
       </c>
       <c r="G23" s="11">
-        <f>2.71^-D23*SIN(2*D23)+1</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H23" s="11">
-        <f>E23*G23</f>
+        <f t="shared" si="9"/>
         <v>1.01723373343409</v>
       </c>
     </row>
@@ -1798,23 +1791,23 @@
         <v>43.9746989977722</v>
       </c>
       <c r="D24" s="11">
-        <f>C24-(F24*(C24-B24))/(F24-E24)</f>
+        <f t="shared" si="5"/>
         <v>2360.80944068362</v>
       </c>
       <c r="E24" s="11">
-        <f>2.71^-B24*SIN(2*B24)+1</f>
+        <f t="shared" si="6"/>
         <v>1.01723457168051</v>
       </c>
       <c r="F24" s="11">
-        <f>2.71^-C24*SIN(2*C24)+1</f>
+        <f t="shared" si="7"/>
         <v>1</v>
       </c>
       <c r="G24" s="11">
-        <f>2.71^-D24*SIN(2*D24)+1</f>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="H24" s="11">
-        <f>E24*G24</f>
+        <f t="shared" si="9"/>
         <v>1.01723457168051</v>
       </c>
     </row>
